--- a/biology/Virologie/Mandarivirus/Mandarivirus.xlsx
+++ b/biology/Virologie/Mandarivirus/Mandarivirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mandarivirus est un genre de virus de la famille des Alphaflexiviridae, qui  comprend 2 espèces officiellement décrites, dont l'ICRSV (Indian citrus ringspot virus) qui est l'espèce-type, et 1 espèce proposée. Ce sont des virus à ARN simple brin à polarité positive, rattachés au groupe IV de la classification Baltimore. 
 Ils infectent des plantes du genre Citrus (phytovirus). 
@@ -514,9 +526,11 @@
           <t>Liste des  espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (22 janvier 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 janvier 2021) :
 Citrus yellow vein clearing virus (CYVCV)
 Indian citrus ringspot virus (ICRSV)
 non-classés
